--- a/biology/Neurosciences/Steven_Laureys/Steven_Laureys.xlsx
+++ b/biology/Neurosciences/Steven_Laureys/Steven_Laureys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steven Laureys, né en 1968 à Louvain[1], est un neurologue, neuroscientifique et auteur belge. Il a acquis une renommée mondiale pour ses travaux sur la neurologie de la conscience. Steven Laureys est directeur de recherches au Fonds de la recherche scientifique[2] et directeur fondateur de l'Unité de Recherches Interdisciplinaire du GIGA Consciousness[3] et du Centre du Cerveau du CHU de Liège[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steven Laureys, né en 1968 à Louvain, est un neurologue, neuroscientifique et auteur belge. Il a acquis une renommée mondiale pour ses travaux sur la neurologie de la conscience. Steven Laureys est directeur de recherches au Fonds de la recherche scientifique et directeur fondateur de l'Unité de Recherches Interdisciplinaire du GIGA Consciousness et du Centre du Cerveau du CHU de Liège.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé docteur en médecine (Vrije Universiteit Brussel, 1993), Steven Laureys est également docteur en sciences biomédicales (Université de Liège, 2000). Il est actuellement directeur de recherche auprès du Fonds national de la recherche scientifique à l'Université de Liège et professeur de clinique au service de neurologie du Centre hospitalier universitaire de Liège.
-Steven Laureys a dirigé, jusque début 2020, le Coma Science Group qu'il a créé en 2014 au sein du centre GIGA Consciousness de l'Université de Liège. La majeure partie de ses travaux de chercheur est consacrée à l'étude des altérations de la conscience chez les patients sévèrement cérébrolésés (coma, état végétatif, état de conscience minimale, locked-in syndrome), ainsi que durant l'anesthésie, le sommeil[5], la méditation[6] et dans l'état hypnotique[7].
-Lauréat de plusieurs prix scientifiques, dont le prix de la Cognitive Neuroscience Society 2007[8], Steven Laureys est connu pour ses travaux sur la neurologie de la conscience et le coma[9],[10].
-Le neurologue Steven Laureys est reconnu internationalement pour son étude scientifique du cerveau et de la neurologie de la conscience. Avec son équipe, il explore l'esprit humain, nos pensées, perceptions et émotions, en utilisant les dernières technologies d'imagerie cérébrale évaluant le coma, les expériences de mort imminente, les commotions cérébrales, l'anesthésie, le rêve, l'hypnose, la trance et la méditation. Il a étudié des brillants cerveaux comme celui des astronautes[11], des moines bouddhiste (dont Mathieu Ricard)[12], musiciens (dont le directeur musical de l’Opéra de Bruxelles), athlètes (dont le champion du monde d’apnée en profondeur Guillaume Nery[13], et autres explorateurs de la conscience comme la Chamane Corinne Sombrun[14]. Il est l'auteur de plus de 500 articles scientifiques et a publié plus de 10 livres scientifiques dont « The Neurology of Consciousness[15] » et des livres populaires, dont le best-seller international « La méditation c'est bon pour le cerveau[16] ».
-Le professeur Laureys est membre de l'Académie Royale de Médecine[17] et a reçu des nombreux prix internationaux tels de l’Institut Allemand Max Planck[4], l'Académie Européenne de Neurologie[4], l'« Association for the Scientific Study of Consciousness (en) », la « Mind Science Foundation (en) » et la « Society of Cognitive Neuroscience », le prix Francqui[18] et Generet[19]. En 2018, il est nommé Commandeur de l'Ordre de Léopold[4]. Dr Laureys est cosignataire de la déclaration de Cambridge sur la conscience chez les animaux (2012)[20] et défenseur du bien-être animal.
-Professeur Laureys est Directeur de Recherche au Fonds National de la Recherche Scientifique Belge[2] et directeur fondateur de l'Unité de Recherche GIGA Consciousness[3] à l'Université de Liège. Il dirige également le Centre du Cerveau au CHU de Liège[4] et a fondé le Coma Science Group[21]. Steven Laureys est cofondateur de Mind Care International Foundation[22], codirige le Hangzhou International Consciousness Institute[23] en Chine et est actuellement professeur invité au Centre de Recherche CERVO[6] à l’Université Laval au Canada. Père de cinq enfants, il est apprécié en tant que vulgarisateur scientifique et conférencier.
+Steven Laureys a dirigé, jusque début 2020, le Coma Science Group qu'il a créé en 2014 au sein du centre GIGA Consciousness de l'Université de Liège. La majeure partie de ses travaux de chercheur est consacrée à l'étude des altérations de la conscience chez les patients sévèrement cérébrolésés (coma, état végétatif, état de conscience minimale, locked-in syndrome), ainsi que durant l'anesthésie, le sommeil, la méditation et dans l'état hypnotique.
+Lauréat de plusieurs prix scientifiques, dont le prix de la Cognitive Neuroscience Society 2007, Steven Laureys est connu pour ses travaux sur la neurologie de la conscience et le coma,.
+Le neurologue Steven Laureys est reconnu internationalement pour son étude scientifique du cerveau et de la neurologie de la conscience. Avec son équipe, il explore l'esprit humain, nos pensées, perceptions et émotions, en utilisant les dernières technologies d'imagerie cérébrale évaluant le coma, les expériences de mort imminente, les commotions cérébrales, l'anesthésie, le rêve, l'hypnose, la trance et la méditation. Il a étudié des brillants cerveaux comme celui des astronautes, des moines bouddhiste (dont Mathieu Ricard), musiciens (dont le directeur musical de l’Opéra de Bruxelles), athlètes (dont le champion du monde d’apnée en profondeur Guillaume Nery, et autres explorateurs de la conscience comme la Chamane Corinne Sombrun. Il est l'auteur de plus de 500 articles scientifiques et a publié plus de 10 livres scientifiques dont « The Neurology of Consciousness » et des livres populaires, dont le best-seller international « La méditation c'est bon pour le cerveau ».
+Le professeur Laureys est membre de l'Académie Royale de Médecine et a reçu des nombreux prix internationaux tels de l’Institut Allemand Max Planck, l'Académie Européenne de Neurologie, l'« Association for the Scientific Study of Consciousness (en) », la « Mind Science Foundation (en) » et la « Society of Cognitive Neuroscience », le prix Francqui et Generet. En 2018, il est nommé Commandeur de l'Ordre de Léopold. Dr Laureys est cosignataire de la déclaration de Cambridge sur la conscience chez les animaux (2012) et défenseur du bien-être animal.
+Professeur Laureys est Directeur de Recherche au Fonds National de la Recherche Scientifique Belge et directeur fondateur de l'Unité de Recherche GIGA Consciousness à l'Université de Liège. Il dirige également le Centre du Cerveau au CHU de Liège et a fondé le Coma Science Group. Steven Laureys est cofondateur de Mind Care International Foundation, codirige le Hangzhou International Consciousness Institute en Chine et est actuellement professeur invité au Centre de Recherche CERVO à l’Université Laval au Canada. Père de cinq enfants, il est apprécié en tant que vulgarisateur scientifique et conférencier.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'objectif de la recherche de son équipe est d’accroître la connaissance du fonctionnement cérébral résiduel des patients qui survivent à une atteinte traumatique ou hypoxique-ischémique sévère du cerveau mais restent en coma, en état végétatif, en état de conscience minimale ou en syndrome d'enfermement. Ces patients posent en effet des problèmes diagnostiques, pronostiques et thérapeutiques majeurs. L'étude de tels patients est aussi susceptible d’améliorer la connaissance de la conscience humaine.
 Ces travaux comportent quatre aspects :
@@ -556,9 +572,9 @@
 Neuro-imagerie fonctionnelle par tomographie par émission de positons (TEP) et par imagerie par résonance magnétique (IRM) ;
 Réflexion sur les problèmes éthiques que posent un certain nombre de ces patients.
 L'ensemble de ces travaux est une contribution au diagnostic et à la physiopathologie de ces altérations pathologiques de la conscience. En particulier, les travaux du Pr Laureys et de ses collaborateurs démontrent l'importance des connexions fonctionnelles entre certaines aires du cortex cérébral et entre certaines zones du cortex et des noyaux du thalamus. Ce n’est donc pas une atteinte systématiquement « diffuse » qui explique ces états mais des lésions fonctionnelles parfois réversibles de circuits cérébraux spécifiques. Ces travaux ont aussi permis de mieux cerner la perception sensorielle résiduelle de ces patients, notamment à la douleur, et l'effet de la dimension affective de certains stimuli.
-Il est l'auteur de deux livres (The Boundaries of Consciousness – Elsevier 2006 ; et The Neurology of Consciousness – Academic Press 2009) et a plus de 500 publications scientifiques[9]. Il a reçu le prix de la Cognitive Neuroscience Society (2007)[24], la Mind Science Foundation (2006)[25], le prix William James de l'Association for the Scientific Study of Consciousness (2004)[26] et le prix Francqui 2017.
-Il fait partie du groupe relativement restreint de chercheurs qui ont pu étudier de manière approfondie les modifications neurologiques associées aux états méditatifs et à l'hypnose, notamment en examinant le fonctionnement neurologique de Matthieu Ricard qu'il a rencontré en 2013[27]. Cela l'a conduit a écrire un livre qui fait l'éloge de la méditation qu'il considère comme « une excellente gymnastique du cerveau et de la conscience »[28].
-Il est membre de la branche européenne du Mind &amp; Life institute[29] initié par le cognitiviste  Varela qui associe science et bouddhisme[30].
+Il est l'auteur de deux livres (The Boundaries of Consciousness – Elsevier 2006 ; et The Neurology of Consciousness – Academic Press 2009) et a plus de 500 publications scientifiques. Il a reçu le prix de la Cognitive Neuroscience Society (2007), la Mind Science Foundation (2006), le prix William James de l'Association for the Scientific Study of Consciousness (2004) et le prix Francqui 2017.
+Il fait partie du groupe relativement restreint de chercheurs qui ont pu étudier de manière approfondie les modifications neurologiques associées aux états méditatifs et à l'hypnose, notamment en examinant le fonctionnement neurologique de Matthieu Ricard qu'il a rencontré en 2013. Cela l'a conduit a écrire un livre qui fait l'éloge de la méditation qu'il considère comme « une excellente gymnastique du cerveau et de la conscience ».
+Il est membre de la branche européenne du Mind &amp; Life institute initié par le cognitiviste  Varela qui associe science et bouddhisme.
 </t>
         </is>
       </c>
@@ -587,7 +603,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2004 ASSC William James Prize for Contributions to the Study of Consciousness, États-Unis
 2006 Centre d'Études Nucléaires de Belgique - Prix Pr Roger Van Geen
@@ -601,7 +619,7 @@
 2015 Chaire Professeur Francqui – Université de Namur
 2017 Citoyenneté d'honneur, Liège, Wallonie
 2017 Prix Zülch (de) recherche neurologique (avec Giulio Tononi) - Max Planck Society
-2017 Prix Francqui[31] sciences biologiques &amp; médicales - Académie Royale de Belgique
+2017 Prix Francqui sciences biologiques &amp; médicales - Académie Royale de Belgique
 2018 Commandeur dans l'Ordre de Léopold
 2018 Trophée de la Vulgarisation Scientifique « Matière grise » (RTBF) &amp; Paris-Match
 2019 Prix Generet, Fondation Roi Baudouin
@@ -633,7 +651,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2018 : Back from the Dead, National Geographic, dans lequel le Dr Laureys tentera d'offrir une explication scientifique par lui-même en subissant une série d'expériences conçues pour provoquer des symptômes d'une NDE.
 2019 : Un monde plus grand de Fabienne Berthaud, où il apparaît dans son propre rôle de neurologue.
